--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Clec11a</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.8500419551937</v>
+        <v>0.576169</v>
       </c>
       <c r="H2">
-        <v>16.8500419551937</v>
+        <v>1.728507</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>32.5328191503054</v>
+        <v>0.502777</v>
       </c>
       <c r="N2">
-        <v>32.5328191503054</v>
+        <v>1.508331</v>
       </c>
       <c r="O2">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242437</v>
       </c>
       <c r="P2">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242436</v>
       </c>
       <c r="Q2">
-        <v>548.179367603375</v>
+        <v>0.289684521313</v>
       </c>
       <c r="R2">
-        <v>548.179367603375</v>
+        <v>2.607160691817</v>
       </c>
       <c r="S2">
-        <v>0.9956680380561138</v>
+        <v>0.0004899085281968778</v>
       </c>
       <c r="T2">
-        <v>0.9956680380561138</v>
+        <v>0.0004899085281968777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.576169</v>
+      </c>
+      <c r="H3">
+        <v>1.728507</v>
+      </c>
+      <c r="I3">
+        <v>0.03254571637877773</v>
+      </c>
+      <c r="J3">
+        <v>0.03254571637877773</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>32.710306</v>
+      </c>
+      <c r="N3">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O3">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="P3">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="Q3">
+        <v>18.846664297714</v>
+      </c>
+      <c r="R3">
+        <v>169.619978679426</v>
+      </c>
+      <c r="S3">
+        <v>0.03187309258245603</v>
+      </c>
+      <c r="T3">
+        <v>0.03187309258245603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.576169</v>
+      </c>
+      <c r="H4">
+        <v>1.728507</v>
+      </c>
+      <c r="I4">
+        <v>0.03254571637877773</v>
+      </c>
+      <c r="J4">
+        <v>0.03254571637877773</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.1531426666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.459428</v>
+      </c>
+      <c r="O4">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="P4">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="Q4">
+        <v>0.08823605711066668</v>
+      </c>
+      <c r="R4">
+        <v>0.794124513996</v>
+      </c>
+      <c r="S4">
+        <v>0.0001492230122515781</v>
+      </c>
+      <c r="T4">
+        <v>0.0001492230122515781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.576169</v>
+      </c>
+      <c r="H5">
+        <v>1.728507</v>
+      </c>
+      <c r="I5">
+        <v>0.03254571637877773</v>
+      </c>
+      <c r="J5">
+        <v>0.03254571637877773</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.034372</v>
+      </c>
+      <c r="N5">
+        <v>0.103116</v>
+      </c>
+      <c r="O5">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P5">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q5">
+        <v>0.019804080868</v>
+      </c>
+      <c r="R5">
+        <v>0.178236727812</v>
+      </c>
+      <c r="S5">
+        <v>3.349225587324615E-05</v>
+      </c>
+      <c r="T5">
+        <v>3.349225587324615E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>16.8500419551937</v>
-      </c>
-      <c r="H3">
-        <v>16.8500419551937</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.141544098132948</v>
-      </c>
-      <c r="N3">
-        <v>0.141544098132948</v>
-      </c>
-      <c r="O3">
-        <v>0.004331961943886175</v>
-      </c>
-      <c r="P3">
-        <v>0.004331961943886175</v>
-      </c>
-      <c r="Q3">
-        <v>2.385023992050228</v>
-      </c>
-      <c r="R3">
-        <v>2.385023992050228</v>
-      </c>
-      <c r="S3">
-        <v>0.004331961943886175</v>
-      </c>
-      <c r="T3">
-        <v>0.004331961943886175</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>17.041313</v>
+      </c>
+      <c r="H6">
+        <v>51.123939</v>
+      </c>
+      <c r="I6">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="J6">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.502777</v>
+      </c>
+      <c r="N6">
+        <v>1.508331</v>
+      </c>
+      <c r="O6">
+        <v>0.01505293423242437</v>
+      </c>
+      <c r="P6">
+        <v>0.01505293423242436</v>
+      </c>
+      <c r="Q6">
+        <v>8.567980226201</v>
+      </c>
+      <c r="R6">
+        <v>77.111822035809</v>
+      </c>
+      <c r="S6">
+        <v>0.01448999264169422</v>
+      </c>
+      <c r="T6">
+        <v>0.01448999264169422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.041313</v>
+      </c>
+      <c r="H7">
+        <v>51.123939</v>
+      </c>
+      <c r="I7">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="J7">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>32.710306</v>
+      </c>
+      <c r="N7">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O7">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="P7">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="Q7">
+        <v>557.4265628717778</v>
+      </c>
+      <c r="R7">
+        <v>5016.839065846002</v>
+      </c>
+      <c r="S7">
+        <v>0.9427083841296764</v>
+      </c>
+      <c r="T7">
+        <v>0.9427083841296764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>17.041313</v>
+      </c>
+      <c r="H8">
+        <v>51.123939</v>
+      </c>
+      <c r="I8">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="J8">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1531426666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.459428</v>
+      </c>
+      <c r="O8">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="P8">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="Q8">
+        <v>2.609752116321333</v>
+      </c>
+      <c r="R8">
+        <v>23.487769046892</v>
+      </c>
+      <c r="S8">
+        <v>0.004413559317807758</v>
+      </c>
+      <c r="T8">
+        <v>0.004413559317807758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>17.041313</v>
+      </c>
+      <c r="H9">
+        <v>51.123939</v>
+      </c>
+      <c r="I9">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="J9">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.034372</v>
+      </c>
+      <c r="N9">
+        <v>0.103116</v>
+      </c>
+      <c r="O9">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P9">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q9">
+        <v>0.585744010436</v>
+      </c>
+      <c r="R9">
+        <v>5.271696093924</v>
+      </c>
+      <c r="S9">
+        <v>0.0009905982713614859</v>
+      </c>
+      <c r="T9">
+        <v>0.0009905982713614859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08589233333333335</v>
+      </c>
+      <c r="H10">
+        <v>0.257677</v>
+      </c>
+      <c r="I10">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="J10">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.502777</v>
+      </c>
+      <c r="N10">
+        <v>1.508331</v>
+      </c>
+      <c r="O10">
+        <v>0.01505293423242437</v>
+      </c>
+      <c r="P10">
+        <v>0.01505293423242436</v>
+      </c>
+      <c r="Q10">
+        <v>0.04318468967633334</v>
+      </c>
+      <c r="R10">
+        <v>0.3886622070870001</v>
+      </c>
+      <c r="S10">
+        <v>7.303306253326534E-05</v>
+      </c>
+      <c r="T10">
+        <v>7.303306253326534E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.08589233333333335</v>
+      </c>
+      <c r="H11">
+        <v>0.257677</v>
+      </c>
+      <c r="I11">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="J11">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>32.710306</v>
+      </c>
+      <c r="N11">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="P11">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="Q11">
+        <v>2.809564506387333</v>
+      </c>
+      <c r="R11">
+        <v>25.286080557486</v>
+      </c>
+      <c r="S11">
+        <v>0.00475147793868901</v>
+      </c>
+      <c r="T11">
+        <v>0.00475147793868901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08589233333333335</v>
+      </c>
+      <c r="H12">
+        <v>0.257677</v>
+      </c>
+      <c r="I12">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="J12">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1531426666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.459428</v>
+      </c>
+      <c r="O12">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="P12">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="Q12">
+        <v>0.01315378097288889</v>
+      </c>
+      <c r="R12">
+        <v>0.118384028756</v>
+      </c>
+      <c r="S12">
+        <v>2.224540492341073E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.224540492341073E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08589233333333335</v>
+      </c>
+      <c r="H13">
+        <v>0.257677</v>
+      </c>
+      <c r="I13">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="J13">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.034372</v>
+      </c>
+      <c r="N13">
+        <v>0.103116</v>
+      </c>
+      <c r="O13">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P13">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q13">
+        <v>0.002952291281333334</v>
+      </c>
+      <c r="R13">
+        <v>0.02657062153200001</v>
+      </c>
+      <c r="S13">
+        <v>4.992854536690016E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.992854536690016E-06</v>
       </c>
     </row>
   </sheetData>
